--- a/examples/optimization/scipy/8MW_reference_data.xlsx
+++ b/examples/optimization/scipy/8MW_reference_data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\floris\examples\optimization\scipy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D386C6A-9E4A-4E60-8B72-70BA92D554C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092A432-7F04-4512-AB47-F4CF8B2D896F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C9A8DB03-80FA-42AC-9296-00881E000A4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A8DB03-80FA-42AC-9296-00881E000A4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>U/Urated</t>
   </si>
@@ -45,6 +47,15 @@
   </si>
   <si>
     <t>C_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dens </t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>power</t>
   </si>
 </sst>
 </file>
@@ -97,6 +108,2349 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1B2-419E-98A7-21A4F6A160B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="589996328"/>
+        <c:axId val="589997640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="589996328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589997640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="589997640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589996328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test!$I$2:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107648.25563795168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>353706.0322719356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>598405.26721818093</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>839530.24367644743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1145832.8749155048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1492358.0439808222</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1908298.2240434487</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2347123.3622983377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2914783.5372737683</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3496174.6871645567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4150150.7786573772</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4880981.5141994087</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5692936.596237829</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6440506.5061466387</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7232875.9455201617</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7674353.474689208</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7825200.1213741787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7833852.7380758477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-984C-4681-A104-01344FDE1ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="263780216"/>
+        <c:axId val="349560808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="263780216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349560808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="349560808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263780216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77FC4BB-A120-415D-9746-5CCA6D0D60DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834F4672-0492-4F14-AB0F-10FAADD92A12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,7 +2753,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,8 +2786,8 @@
         <v>1.18</v>
       </c>
       <c r="D2">
-        <f>A2/10.5</f>
-        <v>0.19047619047619047</v>
+        <f>A2/12.5</f>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,8 +2801,8 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D49" si="0">A3/10.5</f>
-        <v>0.23809523809523808</v>
+        <f t="shared" ref="D3:D49" si="0">A3/12.5</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,7 +2817,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,7 +2832,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,7 +2847,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.38095238095238093</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,7 +2862,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,7 +2877,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.47619047619047616</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,7 +2892,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.52380952380952384</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,7 +2907,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,7 +2922,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.61904761904761907</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -583,7 +2937,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +2952,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -613,7 +2967,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.76190476190476186</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,7 +2982,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.80952380952380953</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,7 +2997,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,7 +3012,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.90476190476190477</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,7 +3027,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.95238095238095233</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +3042,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,7 +3057,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>1.0476190476190477</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,7 +3072,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1.0952380952380953</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,7 +3087,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>1.1428571428571428</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,7 +3102,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>1.1904761904761905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,7 +3117,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>1.2380952380952381</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +3132,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>1.2857142857142858</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,7 +3147,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +3162,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>1.3809523809523809</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,7 +3177,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>1.4285714285714286</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,7 +3192,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>1.4761904761904763</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,7 +3207,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>1.5238095238095237</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,7 +3222,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>1.5714285714285714</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,7 +3237,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>1.6190476190476191</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,7 +3252,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,7 +3267,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>1.7142857142857142</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,7 +3282,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>1.7619047619047619</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,7 +3297,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>1.8095238095238095</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -958,7 +3312,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>1.8571428571428572</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,7 +3327,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>1.9047619047619047</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,7 +3342,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>1.9523809523809523</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,7 +3357,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,7 +3372,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>2.0476190476190474</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,7 +3387,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>2.0952380952380953</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,7 +3402,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>2.1428571428571428</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,7 +3417,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>2.1904761904761907</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1078,7 +3432,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>2.2380952380952381</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,7 +3447,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>2.2857142857142856</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,7 +3462,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,7 +3477,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>2.3809523809523809</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,10 +3492,1129 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>2.4285714285714284</v>
+        <v>2.04</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B67D7A7-DD7B-4858-95C8-58873485BBCE}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1.18</v>
+      </c>
+      <c r="D2">
+        <f>A2/12.5</f>
+        <v>0.16</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> 0.5* $K$2 *PI() * ($K$4^2) *B2 * (A2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D49" si="0">A3/12.5</f>
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F49" si="1" xml:space="preserve"> 0.5* $K$2 *PI() * ($K$4^2) *B3 * (A3^3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1.03</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3.5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.13</v>
+      </c>
+      <c r="C6">
+        <v>0.92</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="F6">
+        <f xml:space="preserve"> 0.5* $K$2 *PI() * ($K$4^2) *B6 * (A6^3)</f>
+        <v>107648.25563795168</v>
+      </c>
+      <c r="I6">
+        <v>107648.25563795168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.5</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>0.88</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>353706.0322719356</v>
+      </c>
+      <c r="I7">
+        <v>353706.0322719356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.37</v>
+      </c>
+      <c r="C8">
+        <v>0.85</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>598405.26721818093</v>
+      </c>
+      <c r="I8">
+        <v>598405.26721818093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.5</v>
+      </c>
+      <c r="B9">
+        <v>0.39</v>
+      </c>
+      <c r="C9">
+        <v>0.83</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>839530.24367644743</v>
+      </c>
+      <c r="I9">
+        <v>839530.24367644743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.41</v>
+      </c>
+      <c r="C10">
+        <v>0.82</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1145832.8749155048</v>
+      </c>
+      <c r="I10">
+        <v>1145832.8749155048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6.5</v>
+      </c>
+      <c r="B11">
+        <v>0.42</v>
+      </c>
+      <c r="C11">
+        <v>0.81</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1492358.0439808222</v>
+      </c>
+      <c r="I11">
+        <v>1492358.0439808222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.43</v>
+      </c>
+      <c r="C12">
+        <v>0.8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1908298.2240434487</v>
+      </c>
+      <c r="I12">
+        <v>1908298.2240434487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7.5</v>
+      </c>
+      <c r="B13">
+        <v>0.43</v>
+      </c>
+      <c r="C13">
+        <v>0.79</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2347123.3622983377</v>
+      </c>
+      <c r="I13">
+        <v>2347123.3622983377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0.44</v>
+      </c>
+      <c r="C14">
+        <v>0.78</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2914783.5372737683</v>
+      </c>
+      <c r="I14">
+        <v>2914783.5372737683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8.5</v>
+      </c>
+      <c r="B15">
+        <v>0.44</v>
+      </c>
+      <c r="C15">
+        <v>0.77</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3496174.6871645567</v>
+      </c>
+      <c r="I15">
+        <v>3496174.6871645567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0.44</v>
+      </c>
+      <c r="C16">
+        <v>0.76</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4150150.7786573772</v>
+      </c>
+      <c r="I16">
+        <v>4150150.7786573772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9.5</v>
+      </c>
+      <c r="B17">
+        <v>0.44</v>
+      </c>
+      <c r="C17">
+        <v>0.75</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4880981.5141994087</v>
+      </c>
+      <c r="I17">
+        <v>4880981.5141994087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>0.44</v>
+      </c>
+      <c r="C18">
+        <v>0.73</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5692936.596237829</v>
+      </c>
+      <c r="I18">
+        <v>5692936.596237829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10.5</v>
+      </c>
+      <c r="B19">
+        <v>0.43</v>
+      </c>
+      <c r="C19">
+        <v>0.71</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>6440506.5061466387</v>
+      </c>
+      <c r="I19">
+        <v>6440506.5061466387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0.42</v>
+      </c>
+      <c r="C20">
+        <v>0.67</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>7232875.9455201617</v>
+      </c>
+      <c r="I20">
+        <v>7232875.9455201617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11.5</v>
+      </c>
+      <c r="B21">
+        <v>0.39</v>
+      </c>
+      <c r="C21">
+        <v>0.6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>7674353.474689208</v>
+      </c>
+      <c r="I21">
+        <v>7674353.474689208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0.35</v>
+      </c>
+      <c r="C22">
+        <v>0.52</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>7825200.1213741787</v>
+      </c>
+      <c r="I22">
+        <v>7825200.1213741787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12.5</v>
+      </c>
+      <c r="B23">
+        <v>0.31</v>
+      </c>
+      <c r="C23">
+        <v>0.45</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>7833852.7380758477</v>
+      </c>
+      <c r="I23">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C24">
+        <v>0.39</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>7959242.9012310524</v>
+      </c>
+      <c r="I24">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>13.5</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25">
+        <v>0.34</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>7958385.7261185506</v>
+      </c>
+      <c r="I25">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>0.23</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>8165741.2377673155</v>
+      </c>
+      <c r="I26">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>14.5</v>
+      </c>
+      <c r="B27">
+        <v>0.2</v>
+      </c>
+      <c r="C27">
+        <v>0.27</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>7888922.1957752509</v>
+      </c>
+      <c r="I27">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>0.18</v>
+      </c>
+      <c r="C28">
+        <v>0.24</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>7860134.0504874559</v>
+      </c>
+      <c r="I28">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15.5</v>
+      </c>
+      <c r="B29">
+        <v>0.17</v>
+      </c>
+      <c r="C29">
+        <v>0.22</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>8190825.7396444893</v>
+      </c>
+      <c r="I29">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>0.15</v>
+      </c>
+      <c r="C30">
+        <v>0.19</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1.28</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>7949409.6471102778</v>
+      </c>
+      <c r="I30">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16.5</v>
+      </c>
+      <c r="B31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.18</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>8136985.4387101829</v>
+      </c>
+      <c r="I31">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>0.13</v>
+      </c>
+      <c r="C32">
+        <v>0.16</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>8263685.6242071344</v>
+      </c>
+      <c r="I32">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>17.5</v>
+      </c>
+      <c r="B33">
+        <v>0.12</v>
+      </c>
+      <c r="C33">
+        <v>0.15</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>8321067.8373987591</v>
+      </c>
+      <c r="I33">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>0.11</v>
+      </c>
+      <c r="C34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>8300301.5573147545</v>
+      </c>
+      <c r="I34">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18.5</v>
+      </c>
+      <c r="B35">
+        <v>0.1</v>
+      </c>
+      <c r="C35">
+        <v>0.13</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1.48</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>8192168.1082168967</v>
+      </c>
+      <c r="I35">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>0.09</v>
+      </c>
+      <c r="C36">
+        <v>0.12</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1.52</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>7987060.6595990313</v>
+      </c>
+      <c r="I36">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>19.5</v>
+      </c>
+      <c r="B37">
+        <v>0.08</v>
+      </c>
+      <c r="C37">
+        <v>0.11</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>7674984.2261870857</v>
+      </c>
+      <c r="I37">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>0.08</v>
+      </c>
+      <c r="C38">
+        <v>0.1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>8280635.0490732053</v>
+      </c>
+      <c r="I38">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20.5</v>
+      </c>
+      <c r="B39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.09</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1.64</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>7802670.9717191821</v>
+      </c>
+      <c r="I39">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.09</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>8387636.3800979489</v>
+      </c>
+      <c r="I40">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>21.5</v>
+      </c>
+      <c r="B41">
+        <v>0.06</v>
+      </c>
+      <c r="C41">
+        <v>0.08</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>7715255.2833593367</v>
+      </c>
+      <c r="I41">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>0.06</v>
+      </c>
+      <c r="C42">
+        <v>0.08</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1.76</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>8266143.937737328</v>
+      </c>
+      <c r="I42">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>22.5</v>
+      </c>
+      <c r="B43">
+        <v>0.05</v>
+      </c>
+      <c r="C43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>7368875.6723319916</v>
+      </c>
+      <c r="I43">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>0.05</v>
+      </c>
+      <c r="C44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1.84</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>7871131.768912008</v>
+      </c>
+      <c r="I44">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>23.5</v>
+      </c>
+      <c r="B45">
+        <v>0.05</v>
+      </c>
+      <c r="C45">
+        <v>0.06</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1.88</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>8395706.7646477297</v>
+      </c>
+      <c r="I45">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>0.04</v>
+      </c>
+      <c r="C46">
+        <v>0.06</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>7154468.6823992496</v>
+      </c>
+      <c r="I46">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>24.5</v>
+      </c>
+      <c r="B47">
+        <v>0.04</v>
+      </c>
+      <c r="C47">
+        <v>0.06</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>7611003.3819407308</v>
+      </c>
+      <c r="I47">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>0.04</v>
+      </c>
+      <c r="C48">
+        <v>0.05</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>8086557.6651105527</v>
+      </c>
+      <c r="I48">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>25.5</v>
+      </c>
+      <c r="B49">
+        <v>0.04</v>
+      </c>
+      <c r="C49">
+        <v>0.05</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>8581519.6866766382</v>
+      </c>
+      <c r="I49">
+        <v>7833852.7380758477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA061FCA-23DF-4741-BAB4-96A77E66DFA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples/optimization/scipy/8MW_reference_data.xlsx
+++ b/examples/optimization/scipy/8MW_reference_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\floris\examples\optimization\scipy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092A432-7F04-4512-AB47-F4CF8B2D896F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C068175C-1BE8-44E4-ACDA-5A86E564B131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A8DB03-80FA-42AC-9296-00881E000A4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Test" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Comparison of scaling methods " sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>U/Urated</t>
   </si>
@@ -52,23 +52,73 @@
     <t xml:space="preserve">dens </t>
   </si>
   <si>
+    <t>ws</t>
+  </si>
+  <si>
     <t>r</t>
   </si>
   <si>
     <t>power</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ct </t>
+  </si>
+  <si>
+    <t> 0.30487242</t>
+  </si>
+  <si>
+    <t>Nicholas 5MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLORIS (my lookup 5MW) </t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Ct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaled 8MW Nicholas </t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a comparison study: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x2 grid for baseline cases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itterate through 2MW, 5MW, 8MW and 8MW  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is this already being done for fisherman (changing SP gives different rated powers hence Cp curves) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should generate power curves and cp curves for complete visulization </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,8 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,6 +1313,3498 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CCBlade</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scale of 8MW with 5MW reference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Nicholas 5MW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.34902166000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40605878000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42882273999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43622266999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43657497000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43656119999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43590308999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43322955000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37655587000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29700574000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23839378999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19382353999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15970925999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13287856000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11219941</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5453919999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1867629999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0719260000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1481040000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.413366E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8065450000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-592D-4068-9741-4ED4F4A8CA58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>8MW Scale Nicholas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$F$3:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$G$3:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.3426903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40028403000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42270903999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42953154999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42945947000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42945275999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42882145999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42601932999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37730766999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29354232000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2357947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19263873000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15860336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13125343</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11135971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4815419999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.132723E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0218820000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1000190000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4116820000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8597149999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-592D-4068-9741-4ED4F4A8CA58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="447690224"/>
+        <c:axId val="263780216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="447690224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263780216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="263780216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447690224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Summer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scaling</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5MW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$A$27:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$B$27:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1780851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28907459000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34902166000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38472780000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40605878000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42022789999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42882273999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43387273999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43622266999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43684467999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43657497000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43651053000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43656119999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43651728000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43590308999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43467275999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43322955000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43003137000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.37655587000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33328466000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29700574000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26420779</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23839378999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.21459275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19382353999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1756635</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15970925999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14561784999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13287856000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12130194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11219941</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.10311631</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5453919999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.8137809999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1867629999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.5850050000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.0719260000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.5575579999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.1481040000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.7552069999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.413366E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0979690000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.8065450000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5368829999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2870060000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0551410000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0FC-42E8-A08D-8BF3864C2F18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>8MW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$F$27:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$G$27:$G$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0112774693695199E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17958930665563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29002244171664499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34966687921171502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38516143838441502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.406378829592209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42044145260882898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42895962221490003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.433941743747564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43624233979357802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43683554175688499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43657264110496902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43651247569259199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43655941429696599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43649092089003499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.435847509044403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43460430215497198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.433070622158991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42725321105104203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.37421010403318</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33123600532846698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.295079570741831</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26263346834361601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23688847161683599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.21323226933119699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19259295262481099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.174546348136042</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15869071826435899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14466826561653201</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.131989491763259</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12058231778274001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11146080712109201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.10247592614123199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.4825950974130505E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.7585454077182406E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1323933842415597E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.5374887130776502E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.0231284932874005E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.5177886975568894E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.1090553711244201E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.7204605000813598E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.3805949927901699E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0670306197694498E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7773078262697201E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.50922652898645E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.26081937066181E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0284306380750499E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0FC-42E8-A08D-8BF3864C2F18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="604438440"/>
+        <c:axId val="604438768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="604438440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604438768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="604438768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604438440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scaling for Cp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for 8MW</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CCBlade Scale for 8MW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$G$3:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.3426903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40028403000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42270903999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42953154999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42945947000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42945275999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42882145999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42601932999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37730766999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29354232000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2357947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19263873000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15860336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13125343</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11135971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4815419999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.132723E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0218820000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1000190000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4116820000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8597149999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-284F-41BE-B3F3-A8BC2262A823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Summer Scale for 8MW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$F$27:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$G$27:$G$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0112774693695199E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17958930665563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29002244171664499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34966687921171502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38516143838441502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.406378829592209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42044145260882898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42895962221490003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.433941743747564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43624233979357802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43683554175688499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43657264110496902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43651247569259199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43655941429696599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43649092089003499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.435847509044403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43460430215497198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.433070622158991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42725321105104203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.37421010403318</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33123600532846698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.295079570741831</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26263346834361601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23688847161683599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.21323226933119699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19259295262481099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.174546348136042</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15869071826435899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14466826561653201</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.131989491763259</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12058231778274001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11146080712109201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.10247592614123199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.4825950974130505E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.7585454077182406E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1323933842415597E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.5374887130776502E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.0231284932874005E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.5177886975568894E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.1090553711244201E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.7204605000813598E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.3805949927901699E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0670306197694498E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7773078262697201E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.50922652898645E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.26081937066181E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0284306380750499E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-284F-41BE-B3F3-A8BC2262A823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="670476144"/>
+        <c:axId val="670477128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="670476144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ws</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670477128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="670477128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>cp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670476144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scaling for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ct for 8MW</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CCBlade Scale for 8MW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$F$3:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$H$3:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.96302473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88185371000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82583675999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78287744000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75119133000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75108176000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74274764999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72053935000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54800903000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38963807</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30174915000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24196561</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19729368999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16260615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13804677000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11790421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10165873</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8382130000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7425300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9351479999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2936619999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2C0-4DAD-8BF2-00896EF4972A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Summer Scale for 8MW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$F$27:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Comparison of scaling methods '!$H$27:$H$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1.19170748338262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1720079006320301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0976633811697301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0280236710185899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97290872807393602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92752659930155001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89140303043402802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86037332347953599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83479832188459502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81178595693159095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79173895100129599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77540977228451802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76287357408357703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76160139908390401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76258232844545804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76129480026364904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75177582392664999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73977534560613301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.728735997695239</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69836796152198999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53591296943078903</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45161263284699399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39044301275216198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34021257330920002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30277122460366201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26981368370521902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.242001358145956</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21829887650539201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.197890366113642</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.180130374389015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.16427553490463501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15016361395525901</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.13908516056567</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.12813484640006501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.118945960644221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.110212892160256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.102746661890251</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5615845909150704E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.9515960700525102E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.3481461165603302E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8658120059686795E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.4079393237377902E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.0126385498650606E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.6481721785836306E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.3115548390496906E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.0001400394227598E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7115743301385899E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4415758367413698E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2C0-4DAD-8BF2-00896EF4972A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="585408888"/>
+        <c:axId val="585409216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="585408888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ws</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585409216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="585409216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ct</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585408888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1340,6 +4885,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1857,6 +5562,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2445,6 +8214,155 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F0E33C-9E52-4DB0-B0F7-C0BF677E5DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA13666D-2FF4-4063-93C9-429E63040F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>366711</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9785FF-AB7E-4373-B075-1165766CC0F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643770D2-D7F7-4811-808E-83B8F6D9813A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2753,15 +8671,15 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2775,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2790,7 +8708,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2.5</v>
       </c>
@@ -2805,7 +8723,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2820,7 +8738,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3.5</v>
       </c>
@@ -2835,7 +8753,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2850,7 +8768,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -2865,7 +8783,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2880,7 +8798,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>5.5</v>
       </c>
@@ -2895,7 +8813,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2910,7 +8828,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>6.5</v>
       </c>
@@ -2925,7 +8843,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2940,7 +8858,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>7.5</v>
       </c>
@@ -2955,7 +8873,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2970,7 +8888,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>8.5</v>
       </c>
@@ -2985,7 +8903,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>9</v>
       </c>
@@ -3000,7 +8918,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>9.5</v>
       </c>
@@ -3015,7 +8933,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3030,7 +8948,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>10.5</v>
       </c>
@@ -3045,7 +8963,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3060,7 +8978,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>11.5</v>
       </c>
@@ -3075,7 +8993,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3090,7 +9008,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>12.5</v>
       </c>
@@ -3105,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>13</v>
       </c>
@@ -3120,7 +9038,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>13.5</v>
       </c>
@@ -3135,7 +9053,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>14</v>
       </c>
@@ -3150,7 +9068,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>14.5</v>
       </c>
@@ -3165,7 +9083,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>15</v>
       </c>
@@ -3180,7 +9098,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>15.5</v>
       </c>
@@ -3195,7 +9113,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>16</v>
       </c>
@@ -3210,7 +9128,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>16.5</v>
       </c>
@@ -3225,7 +9143,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>17</v>
       </c>
@@ -3240,7 +9158,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>17.5</v>
       </c>
@@ -3255,7 +9173,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>18</v>
       </c>
@@ -3270,7 +9188,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>18.5</v>
       </c>
@@ -3285,7 +9203,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>19</v>
       </c>
@@ -3300,7 +9218,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>19.5</v>
       </c>
@@ -3315,7 +9233,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>20</v>
       </c>
@@ -3330,7 +9248,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>20.5</v>
       </c>
@@ -3345,7 +9263,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>21</v>
       </c>
@@ -3360,7 +9278,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>21.5</v>
       </c>
@@ -3375,7 +9293,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>22</v>
       </c>
@@ -3390,7 +9308,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>22.5</v>
       </c>
@@ -3405,7 +9323,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>23</v>
       </c>
@@ -3420,7 +9338,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>23.5</v>
       </c>
@@ -3435,7 +9353,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>24</v>
       </c>
@@ -3450,7 +9368,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>24.5</v>
       </c>
@@ -3465,7 +9383,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>25</v>
       </c>
@@ -3480,7 +9398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>25.5</v>
       </c>
@@ -3508,12 +9426,12 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3527,10 +9445,10 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3558,7 +9476,7 @@
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2.5</v>
       </c>
@@ -3583,7 +9501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3605,13 +9523,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3.5</v>
       </c>
@@ -3633,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3655,7 +9573,7 @@
         <v>107648.25563795168</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -3677,7 +9595,7 @@
         <v>353706.0322719356</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3699,7 +9617,7 @@
         <v>598405.26721818093</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>5.5</v>
       </c>
@@ -3721,7 +9639,7 @@
         <v>839530.24367644743</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3743,7 +9661,7 @@
         <v>1145832.8749155048</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>6.5</v>
       </c>
@@ -3765,7 +9683,7 @@
         <v>1492358.0439808222</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3787,7 +9705,7 @@
         <v>1908298.2240434487</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>7.5</v>
       </c>
@@ -3809,7 +9727,7 @@
         <v>2347123.3622983377</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>8</v>
       </c>
@@ -3831,7 +9749,7 @@
         <v>2914783.5372737683</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>8.5</v>
       </c>
@@ -3853,7 +9771,7 @@
         <v>3496174.6871645567</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>9</v>
       </c>
@@ -3875,7 +9793,7 @@
         <v>4150150.7786573772</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>9.5</v>
       </c>
@@ -3897,7 +9815,7 @@
         <v>4880981.5141994087</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3919,7 +9837,7 @@
         <v>5692936.596237829</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>10.5</v>
       </c>
@@ -3941,7 +9859,7 @@
         <v>6440506.5061466387</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3963,7 +9881,7 @@
         <v>7232875.9455201617</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>11.5</v>
       </c>
@@ -3985,7 +9903,7 @@
         <v>7674353.474689208</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>12</v>
       </c>
@@ -4007,7 +9925,7 @@
         <v>7825200.1213741787</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>12.5</v>
       </c>
@@ -4029,7 +9947,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>13</v>
       </c>
@@ -4051,7 +9969,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>13.5</v>
       </c>
@@ -4073,7 +9991,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>14</v>
       </c>
@@ -4095,7 +10013,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>14.5</v>
       </c>
@@ -4117,7 +10035,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>15</v>
       </c>
@@ -4139,7 +10057,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>15.5</v>
       </c>
@@ -4161,7 +10079,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>16</v>
       </c>
@@ -4183,7 +10101,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>16.5</v>
       </c>
@@ -4205,7 +10123,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>17</v>
       </c>
@@ -4227,7 +10145,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>17.5</v>
       </c>
@@ -4249,7 +10167,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>18</v>
       </c>
@@ -4271,7 +10189,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>18.5</v>
       </c>
@@ -4293,7 +10211,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>19</v>
       </c>
@@ -4315,7 +10233,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>19.5</v>
       </c>
@@ -4337,7 +10255,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>20</v>
       </c>
@@ -4359,7 +10277,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>20.5</v>
       </c>
@@ -4381,7 +10299,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>21</v>
       </c>
@@ -4403,7 +10321,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>21.5</v>
       </c>
@@ -4425,7 +10343,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>22</v>
       </c>
@@ -4447,7 +10365,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>22.5</v>
       </c>
@@ -4469,7 +10387,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>23</v>
       </c>
@@ -4491,7 +10409,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>23.5</v>
       </c>
@@ -4513,7 +10431,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>24</v>
       </c>
@@ -4535,7 +10453,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>24.5</v>
       </c>
@@ -4557,7 +10475,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>25</v>
       </c>
@@ -4579,7 +10497,7 @@
         <v>7833852.7380758477</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>25.5</v>
       </c>
@@ -4609,12 +10527,1464 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA061FCA-23DF-4741-BAB4-96A77E66DFA6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.34902166000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.97373036000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.3426903</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.96302473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.40605878000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.89210542999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0.40028403000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.88185371000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.42882273999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.83542300000000003</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>0.42270903999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.82583675999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.43622266999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.79225789000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>0.42953154999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.78287744000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.43657497000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.76292280000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>0.42945947000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.75119133000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.43656119999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.76261984000000005</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.42945275999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.75108176000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.43590308999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.75232027000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.42882145999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.74274764999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.43322955000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.72987175000000004</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>0.42601932999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.72053935000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.37655587000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.54054532</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>0.37730766999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.54800903000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.29700574000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.39343380999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>0.29354232000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.38963807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.23839378999999999</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.2357947</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.30174915000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.19382353999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.24361964</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0.19263873000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.24196561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.15970925999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.19918151000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>0.15860336</v>
+      </c>
+      <c r="H15">
+        <v>0.19729368999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.13287856000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.16537679</v>
+      </c>
+      <c r="F16" s="1">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>0.13125343</v>
+      </c>
+      <c r="H16">
+        <v>0.16260615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.11219941</v>
+      </c>
+      <c r="C17">
+        <v>0.13998636</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>0.11135971</v>
+      </c>
+      <c r="H17">
+        <v>0.13804677000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>9.5453919999999998E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.11970413000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.4815419999999997E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.11790421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>8.1867629999999997E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.10339901</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>8.132723E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.10165873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>7.0719260000000006E-2</v>
+      </c>
+      <c r="C20">
+        <v>9.009926E-2</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>7.0218820000000001E-2</v>
+      </c>
+      <c r="H20">
+        <v>8.8382130000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>6.1481040000000001E-2</v>
+      </c>
+      <c r="C21">
+        <v>7.9118800000000003E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>6.1000190000000003E-2</v>
+      </c>
+      <c r="H21">
+        <v>7.7425300000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>5.413366E-2</v>
+      </c>
+      <c r="C22">
+        <v>7.0507310000000004E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <v>5.4116820000000003E-2</v>
+      </c>
+      <c r="H22">
+        <v>6.9351479999999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>4.8065450000000003E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.345518E-2</v>
+      </c>
+      <c r="F23">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.8597149999999999E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6.2936619999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1.1918794500000001</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1.19170748338262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>2.5</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1.17284634</v>
+      </c>
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+      <c r="G28">
+        <v>2.0112774693695199E-3</v>
+      </c>
+      <c r="H28">
+        <v>1.1720079006320301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0.1780851</v>
+      </c>
+      <c r="C29">
+        <v>1.0986081700000001</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0.17958930665563</v>
+      </c>
+      <c r="H29">
+        <v>1.0976633811697301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>3.5</v>
+      </c>
+      <c r="B30">
+        <v>0.28907459000000002</v>
+      </c>
+      <c r="C30">
+        <v>1.0288959200000001</v>
+      </c>
+      <c r="F30">
+        <v>3.5</v>
+      </c>
+      <c r="G30">
+        <v>0.29002244171664499</v>
+      </c>
+      <c r="H30">
+        <v>1.0280236710185899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0.34902166000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.97373036000000002</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0.34966687921171502</v>
+      </c>
+      <c r="H31">
+        <v>0.97290872807393602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>4.5</v>
+      </c>
+      <c r="B32">
+        <v>0.38472780000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.92826162000000001</v>
+      </c>
+      <c r="F32">
+        <v>4.5</v>
+      </c>
+      <c r="G32">
+        <v>0.38516143838441502</v>
+      </c>
+      <c r="H32">
+        <v>0.92752659930155001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>0.40605878000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.89210542999999998</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>0.406378829592209</v>
+      </c>
+      <c r="H33">
+        <v>0.89140303043402802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>5.5</v>
+      </c>
+      <c r="B34">
+        <v>0.42022789999999999</v>
+      </c>
+      <c r="C34">
+        <v>0.86100905000000005</v>
+      </c>
+      <c r="F34">
+        <v>5.5</v>
+      </c>
+      <c r="G34">
+        <v>0.42044145260882898</v>
+      </c>
+      <c r="H34">
+        <v>0.86037332347953599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>0.42882273999999998</v>
+      </c>
+      <c r="C35">
+        <v>0.83542300000000003</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>0.42895962221490003</v>
+      </c>
+      <c r="H35">
+        <v>0.83479832188459502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>6.5</v>
+      </c>
+      <c r="B36">
+        <v>0.43387273999999998</v>
+      </c>
+      <c r="C36">
+        <v>0.81237672999999999</v>
+      </c>
+      <c r="F36">
+        <v>6.5</v>
+      </c>
+      <c r="G36">
+        <v>0.433941743747564</v>
+      </c>
+      <c r="H36">
+        <v>0.81178595693159095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0.43622266999999998</v>
+      </c>
+      <c r="C37">
+        <v>0.79225789000000002</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>0.43624233979357802</v>
+      </c>
+      <c r="H37">
+        <v>0.79173895100129599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>7.5</v>
+      </c>
+      <c r="B38">
+        <v>0.43684467999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.77584768999999998</v>
+      </c>
+      <c r="F38">
+        <v>7.5</v>
+      </c>
+      <c r="G38">
+        <v>0.43683554175688499</v>
+      </c>
+      <c r="H38">
+        <v>0.77540977228451802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>0.43657497000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.76292280000000001</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>0.43657264110496902</v>
+      </c>
+      <c r="H39">
+        <v>0.76287357408357703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>8.5</v>
+      </c>
+      <c r="B40">
+        <v>0.43651053000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.76156073000000002</v>
+      </c>
+      <c r="F40">
+        <v>8.5</v>
+      </c>
+      <c r="G40">
+        <v>0.43651247569259199</v>
+      </c>
+      <c r="H40">
+        <v>0.76160139908390401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>0.43656119999999998</v>
+      </c>
+      <c r="C41">
+        <v>0.76261984000000005</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>0.43655941429696599</v>
+      </c>
+      <c r="H41">
+        <v>0.76258232844545804</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>9.5</v>
+      </c>
+      <c r="B42">
+        <v>0.43651728000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.76169723</v>
+      </c>
+      <c r="F42">
+        <v>9.5</v>
+      </c>
+      <c r="G42">
+        <v>0.43649092089003499</v>
+      </c>
+      <c r="H42">
+        <v>0.76129480026364904</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>0.43590308999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.75232027000000001</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>0.435847509044403</v>
+      </c>
+      <c r="H43">
+        <v>0.75177582392664999</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>10.5</v>
+      </c>
+      <c r="B44">
+        <v>0.43467275999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.74026851000000005</v>
+      </c>
+      <c r="F44">
+        <v>10.5</v>
+      </c>
+      <c r="G44">
+        <v>0.43460430215497198</v>
+      </c>
+      <c r="H44">
+        <v>0.73977534560613301</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>0.43322955000000002</v>
+      </c>
+      <c r="C45">
+        <v>0.72987175000000004</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>0.433070622158991</v>
+      </c>
+      <c r="H45">
+        <v>0.728735997695239</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>11.5</v>
+      </c>
+      <c r="B46">
+        <v>0.43003137000000002</v>
+      </c>
+      <c r="C46">
+        <v>0.70701647000000001</v>
+      </c>
+      <c r="F46">
+        <v>11.5</v>
+      </c>
+      <c r="G46">
+        <v>0.42725321105104203</v>
+      </c>
+      <c r="H46">
+        <v>0.69836796152198999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>0.37655587000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.54054532</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>0.37421010403318</v>
+      </c>
+      <c r="H47">
+        <v>0.53591296943078903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>12.5</v>
+      </c>
+      <c r="B48">
+        <v>0.33328466000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.45509459000000002</v>
+      </c>
+      <c r="F48">
+        <v>12.5</v>
+      </c>
+      <c r="G48">
+        <v>0.33123600532846698</v>
+      </c>
+      <c r="H48">
+        <v>0.45161263284699399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>0.29700574000000002</v>
+      </c>
+      <c r="C49">
+        <v>0.39343380999999999</v>
+      </c>
+      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>0.295079570741831</v>
+      </c>
+      <c r="H49">
+        <v>0.39044301275216198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>13.5</v>
+      </c>
+      <c r="B50">
+        <v>0.26420779</v>
+      </c>
+      <c r="C50">
+        <v>0.34250785</v>
+      </c>
+      <c r="F50">
+        <v>13.5</v>
+      </c>
+      <c r="G50">
+        <v>0.26263346834361601</v>
+      </c>
+      <c r="H50">
+        <v>0.34021257330920002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0.23839378999999999</v>
+      </c>
+      <c r="C51">
+        <v>0.30487241999999998</v>
+      </c>
+      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>0.23688847161683599</v>
+      </c>
+      <c r="H51">
+        <v>0.30277122460366201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>14.5</v>
+      </c>
+      <c r="B52">
+        <v>0.21459275</v>
+      </c>
+      <c r="C52">
+        <v>0.27164979</v>
+      </c>
+      <c r="F52">
+        <v>14.5</v>
+      </c>
+      <c r="G52">
+        <v>0.21323226933119699</v>
+      </c>
+      <c r="H52">
+        <v>0.26981368370521902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>0.19382353999999999</v>
+      </c>
+      <c r="C53">
+        <v>0.24361964</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>0.19259295262481099</v>
+      </c>
+      <c r="H53">
+        <v>0.242001358145956</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>15.5</v>
+      </c>
+      <c r="B54">
+        <v>0.1756635</v>
+      </c>
+      <c r="C54">
+        <v>0.21973830999999999</v>
+      </c>
+      <c r="F54">
+        <v>15.5</v>
+      </c>
+      <c r="G54">
+        <v>0.174546348136042</v>
+      </c>
+      <c r="H54">
+        <v>0.21829887650539201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>0.15970925999999999</v>
+      </c>
+      <c r="C55">
+        <v>0.19918151000000001</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>0.15869071826435899</v>
+      </c>
+      <c r="H55">
+        <v>0.197890366113642</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>16.5</v>
+      </c>
+      <c r="B56">
+        <v>0.14561784999999999</v>
+      </c>
+      <c r="C56">
+        <v>0.18131868000000001</v>
+      </c>
+      <c r="F56">
+        <v>16.5</v>
+      </c>
+      <c r="G56">
+        <v>0.14466826561653201</v>
+      </c>
+      <c r="H56">
+        <v>0.180130374389015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>0.13287856000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.16537679</v>
+      </c>
+      <c r="F57">
+        <v>17</v>
+      </c>
+      <c r="G57">
+        <v>0.131989491763259</v>
+      </c>
+      <c r="H57">
+        <v>0.16427553490463501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>17.5</v>
+      </c>
+      <c r="B58">
+        <v>0.12130194</v>
+      </c>
+      <c r="C58">
+        <v>0.15103727</v>
+      </c>
+      <c r="F58">
+        <v>17.5</v>
+      </c>
+      <c r="G58">
+        <v>0.12058231778274001</v>
+      </c>
+      <c r="H58">
+        <v>0.15016361395525901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>0.11219941</v>
+      </c>
+      <c r="C59">
+        <v>0.13998636</v>
+      </c>
+      <c r="F59">
+        <v>18</v>
+      </c>
+      <c r="G59">
+        <v>0.11146080712109201</v>
+      </c>
+      <c r="H59">
+        <v>0.13908516056567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>18.5</v>
+      </c>
+      <c r="B60">
+        <v>0.10311631</v>
+      </c>
+      <c r="C60">
+        <v>0.12890370000000001</v>
+      </c>
+      <c r="F60">
+        <v>18.5</v>
+      </c>
+      <c r="G60">
+        <v>0.10247592614123199</v>
+      </c>
+      <c r="H60">
+        <v>0.12813484640006501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>9.5453919999999998E-2</v>
+      </c>
+      <c r="C61">
+        <v>0.11970413000000001</v>
+      </c>
+      <c r="F61">
+        <v>19</v>
+      </c>
+      <c r="G61">
+        <v>9.4825950974130505E-2</v>
+      </c>
+      <c r="H61">
+        <v>0.118945960644221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>19.5</v>
+      </c>
+      <c r="B62">
+        <v>8.8137809999999997E-2</v>
+      </c>
+      <c r="C62">
+        <v>0.11087113</v>
+      </c>
+      <c r="F62">
+        <v>19.5</v>
+      </c>
+      <c r="G62">
+        <v>8.7585454077182406E-2</v>
+      </c>
+      <c r="H62">
+        <v>0.110212892160256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>20</v>
+      </c>
+      <c r="B63">
+        <v>8.1867629999999997E-2</v>
+      </c>
+      <c r="C63">
+        <v>0.10339901</v>
+      </c>
+      <c r="F63">
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <v>8.1323933842415597E-2</v>
+      </c>
+      <c r="H63">
+        <v>0.102746661890251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>20.5</v>
+      </c>
+      <c r="B64">
+        <v>7.5850050000000002E-2</v>
+      </c>
+      <c r="C64">
+        <v>9.6178879999999994E-2</v>
+      </c>
+      <c r="F64">
+        <v>20.5</v>
+      </c>
+      <c r="G64">
+        <v>7.5374887130776502E-2</v>
+      </c>
+      <c r="H64">
+        <v>9.5615845909150704E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>21</v>
+      </c>
+      <c r="B65">
+        <v>7.0719260000000006E-2</v>
+      </c>
+      <c r="C65">
+        <v>9.009926E-2</v>
+      </c>
+      <c r="F65">
+        <v>21</v>
+      </c>
+      <c r="G65">
+        <v>7.0231284932874005E-2</v>
+      </c>
+      <c r="H65">
+        <v>8.9515960700525102E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>21.5</v>
+      </c>
+      <c r="B66">
+        <v>6.5575579999999994E-2</v>
+      </c>
+      <c r="C66">
+        <v>8.3950780000000003E-2</v>
+      </c>
+      <c r="F66">
+        <v>21.5</v>
+      </c>
+      <c r="G66">
+        <v>6.5177886975568894E-2</v>
+      </c>
+      <c r="H66">
+        <v>8.3481461165603302E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>6.1481040000000001E-2</v>
+      </c>
+      <c r="C67">
+        <v>7.9118800000000003E-2</v>
+      </c>
+      <c r="F67">
+        <v>22</v>
+      </c>
+      <c r="G67">
+        <v>6.1090553711244201E-2</v>
+      </c>
+      <c r="H67">
+        <v>7.8658120059686795E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>22.5</v>
+      </c>
+      <c r="B68">
+        <v>5.7552069999999997E-2</v>
+      </c>
+      <c r="C68">
+        <v>7.4483560000000004E-2</v>
+      </c>
+      <c r="F68">
+        <v>22.5</v>
+      </c>
+      <c r="G68">
+        <v>5.7204605000813598E-2</v>
+      </c>
+      <c r="H68">
+        <v>7.4079393237377902E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="B69">
+        <v>5.413366E-2</v>
+      </c>
+      <c r="C69">
+        <v>7.0507310000000004E-2</v>
+      </c>
+      <c r="F69">
+        <v>23</v>
+      </c>
+      <c r="G69">
+        <v>5.3805949927901699E-2</v>
+      </c>
+      <c r="H69">
+        <v>7.0126385498650606E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>23.5</v>
+      </c>
+      <c r="B70">
+        <v>5.0979690000000001E-2</v>
+      </c>
+      <c r="C70">
+        <v>6.6841189999999995E-2</v>
+      </c>
+      <c r="F70">
+        <v>23.5</v>
+      </c>
+      <c r="G70">
+        <v>5.0670306197694498E-2</v>
+      </c>
+      <c r="H70">
+        <v>6.6481721785836306E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="B71">
+        <v>4.8065450000000003E-2</v>
+      </c>
+      <c r="C71">
+        <v>6.345518E-2</v>
+      </c>
+      <c r="F71">
+        <v>24</v>
+      </c>
+      <c r="G71">
+        <v>4.7773078262697201E-2</v>
+      </c>
+      <c r="H71">
+        <v>6.3115548390496906E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>24.5</v>
+      </c>
+      <c r="B72">
+        <v>4.5368829999999999E-2</v>
+      </c>
+      <c r="C72">
+        <v>6.0322670000000002E-2</v>
+      </c>
+      <c r="F72">
+        <v>24.5</v>
+      </c>
+      <c r="G72">
+        <v>4.50922652898645E-2</v>
+      </c>
+      <c r="H72">
+        <v>6.0001400394227598E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>25</v>
+      </c>
+      <c r="B73">
+        <v>4.2870060000000001E-2</v>
+      </c>
+      <c r="C73">
+        <v>5.7419989999999997E-2</v>
+      </c>
+      <c r="F73">
+        <v>25</v>
+      </c>
+      <c r="G73">
+        <v>4.26081937066181E-2</v>
+      </c>
+      <c r="H73">
+        <v>5.7115743301385899E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>25.5</v>
+      </c>
+      <c r="B74">
+        <v>4.0551410000000003E-2</v>
+      </c>
+      <c r="C74">
+        <v>5.4726089999999998E-2</v>
+      </c>
+      <c r="F74">
+        <v>25.5</v>
+      </c>
+      <c r="G74">
+        <v>4.0284306380750499E-2</v>
+      </c>
+      <c r="H74">
+        <v>5.4415758367413698E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>